--- a/va_facility_data_2025-02-20/Newnan VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Newnan%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Newnan VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Newnan%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra7ececb231a04bb782295bf3c5715cf1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4c09c948daa740319283f2e5dfeb081e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3d12ed4d00c04de386a13b2cc1a69b1d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra01c65aa5be9498d817c6213b629a564"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R93036292791e4fdca4e8ce5109007e2c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0f265ffd0a21430d815cb4ac7f4840dd"/>
   </x:sheets>
 </x:workbook>
 </file>
